--- a/Банки и рискПО.xlsx
+++ b/Банки и рискПО.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f1171c07ae9485/rtportal/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{C72F6068-B21F-4FFE-9978-A5861A6AB79B}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{245A0CED-7A04-4063-994F-2E894B654B99}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{DD0AF281-5C5E-45F2-AB37-FAC9640E5C1B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="619">
   <si>
     <t>Рег. №</t>
   </si>
@@ -1899,6 +1899,9 @@
   <si>
     <t>Experian
 inhouse</t>
+  </si>
+  <si>
+    <t>ЦФТ</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2329,8 @@
   <dimension ref="A1:G565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,19 +3533,19 @@
         <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>591</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>591</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/Банки и рискПО.xlsx
+++ b/Банки и рискПО.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f1171c07ae9485/rtportal/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivse\OneDrive\rtportal\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{245A0CED-7A04-4063-994F-2E894B654B99}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{6AF4C214-128F-4798-95AD-424439D979D8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{DD0AF281-5C5E-45F2-AB37-FAC9640E5C1B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="620">
   <si>
     <t>Рег. №</t>
   </si>
@@ -1891,9 +1891,6 @@
 SAS RTDM</t>
   </si>
   <si>
-    <t>актуально на 25.08.17</t>
-  </si>
-  <si>
     <t>информация, представленная в таблице, является частным мнением членов сообщества Rtportal.ru и может не соответствовать действительности</t>
   </si>
   <si>
@@ -1902,6 +1899,12 @@
   </si>
   <si>
     <t>ЦФТ</t>
+  </si>
+  <si>
+    <t>актуально на 03.10.17</t>
+  </si>
+  <si>
+    <t>FPS, AFS</t>
   </si>
 </sst>
 </file>
@@ -2329,8 +2332,8 @@
   <dimension ref="A1:G565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,12 +3106,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -3533,7 +3536,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>604</v>
@@ -3897,19 +3900,19 @@
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>591</v>
+        <v>12</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>591</v>
+        <v>25</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>591</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>591</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">

--- a/Банки и рискПО.xlsx
+++ b/Банки и рискПО.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivse\OneDrive\rtportal\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f1171c07ae9485/rtportal/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{6AF4C214-128F-4798-95AD-424439D979D8}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="4EDB3DF52D54E66DB496713967E8349955FF0755" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{DF8FCB7F-9A07-4FEA-810D-6F6E449B6597}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{DD0AF281-5C5E-45F2-AB37-FAC9640E5C1B}"/>
   </bookViews>
@@ -1872,10 +1872,6 @@
 MS Dynamics</t>
   </si>
   <si>
-    <t>FICO OMDM
-IBM ODM</t>
-  </si>
-  <si>
     <t>Ubis</t>
   </si>
   <si>
@@ -1901,10 +1897,14 @@
     <t>ЦФТ</t>
   </si>
   <si>
-    <t>актуально на 03.10.17</t>
-  </si>
-  <si>
     <t>FPS, AFS</t>
+  </si>
+  <si>
+    <t>FICO OMDM
+IBM BPM</t>
+  </si>
+  <si>
+    <t>актуально на 05.10.17</t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2333,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,12 +3106,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
@@ -3536,7 +3536,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>604</v>
@@ -3650,7 +3650,7 @@
         <v>609</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>607</v>
@@ -3909,7 +3909,7 @@
         <v>591</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>22</v>
@@ -3952,7 +3952,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>9</v>
@@ -4064,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>34</v>
@@ -4176,7 +4176,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>17</v>
